--- a/templates/recoverysendaktmat.xlsx
+++ b/templates/recoverysendaktmat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test_ps\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,12 +154,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,34 +242,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -302,6 +297,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -636,221 +636,222 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="27" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18" style="21" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>7</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>9</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
